--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_130.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_130.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7'], ['Eb', 'C:min', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08749999999999999</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7'], ['D#', 'C:min', 'F:7/C']]</t>
+          <t>[['C#:min', 'F#:7/A#', 'B:maj'], ['C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(82.09, 89.29), (96.49, 99.19)]</t>
+          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(40.48, 42.6), (36.08, 38.28)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:31.340000', '0:00:36.620000'), ('0:00:00.480000', '0:00:08.480000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:40.440000', '0:00:43.320000'), ('0:04:13.840000', '0:04:17.600000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08518035636679705</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'G', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08749999999999999</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G', 'D']]</t>
+          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(32.808, 37.075)]</t>
+          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(17.014988, 21.856349)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>[('0:00:40.440000', '0:00:43.320000'), ('0:04:13.840000', '0:04:17.600000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:31.240000', '0:00:36.600000'), ('0:00:00.240000', '0:00:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_9</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.172360248447205</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
+          <t>isophonics_246</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1493055555555556</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['A', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(21.08, 23.68)]</t>
+          <t>[['A', 'D', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72)]</t>
+          <t>[('0:00:55.641383', '0:01:01.040381')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:07.605000', '0:00:11.853000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_73</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05340136054421769</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:7', 'G:7'], ['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>jaah_79</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_241</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09104414261460102</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'G:7'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>[['C:min', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(23.61, 26.37), (12.51, 13.91)]</t>
+          <t>[['D:min', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(21.68, 24.25), (19.13, 20.83)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:26.110000', '0:00:28.400000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:46.710000', '0:01:52.530000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_83</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03585164835164835</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06474358974358974</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:7']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(2.68, 3.94)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(18.01, 20.32)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06547445255474452</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G'], ['G', 'G', 'A:min7']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Ab:maj6']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42), (42.94, 46.65)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(6.88, 12.97), (12.97, 19.09)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.96, 13.12)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.12, 19.96)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:01.640000', '0:00:10.360000'), ('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(38.841, 47.891)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(45.72, 59.98)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.162280701754386</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.727609, 8.204625)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.921927, 21.908049)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(50.16, 52.82)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_43</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2232142857142857</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(209.04, 217.18)]</t>
+          <t>[['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.44, 10.01)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#'], ['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(2.6, 4.5), (15.32, 17.86)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(23.98, 27.34), (14.08, 18.4)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:05.208150', '0:00:12.997936')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_67</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(97.77399, 102.557301)]</t>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(74.879, 85.949)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_46</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.03696236559139784</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Bb:7', 'Eb:7', 'Eb:7']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(78.69, 81.66)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(4.6, 11.86)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_54</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.24, 16.26)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(85.58, 94.24)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
